--- a/Bank/Data/TestAccount.xlsx
+++ b/Bank/Data/TestAccount.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
   <si>
     <t>T0102</t>
   </si>
@@ -251,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*T0101*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*T0301*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,6 +289,28 @@
   <si>
     <t>T0601</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*T0201*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*T0202*</t>
+  </si>
+  <si>
+    <t>*T0203*</t>
+  </si>
+  <si>
+    <t>*T0204*</t>
+  </si>
+  <si>
+    <t>*T0205*</t>
+  </si>
+  <si>
+    <t>*T0206*</t>
+  </si>
+  <si>
+    <t>*T0207*</t>
   </si>
 </sst>
 </file>
@@ -684,7 +702,7 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12:W12"/>
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -766,7 +784,7 @@
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>0</v>
@@ -838,30 +856,30 @@
         <v>*T0207*</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>12</v>
@@ -933,7 +951,7 @@
         <v>*T0307*</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>48</v>
@@ -956,7 +974,7 @@
     </row>
     <row r="6" spans="1:23" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>13</v>
@@ -1028,7 +1046,7 @@
         <v>*T0407*</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>54</v>
@@ -1051,7 +1069,7 @@
     </row>
     <row r="8" spans="1:23" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>14</v>
@@ -1123,7 +1141,7 @@
         <v>*T0507*</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>60</v>
@@ -1146,7 +1164,7 @@
     </row>
     <row r="10" spans="1:23" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>15</v>
@@ -1218,7 +1236,7 @@
         <v>*T0607*</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>66</v>
@@ -1241,7 +1259,7 @@
     </row>
     <row r="12" spans="1:23" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>16</v>
